--- a/Temp Data.xlsx
+++ b/Temp Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\britt\Downloads\Resume-Generator-Bot-UiPath-RPA-main\Resume-Generator-Bot-UiPath-RPA-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE284056-2886-4964-BA3E-3EC81718FF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05F0CC5-CC7C-4840-89ED-58794434BCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Name</t>
   </si>
@@ -253,69 +253,6 @@
   </si>
   <si>
     <t>antonypraveen004@gmail.com</t>
-  </si>
-  <si>
-    <t>KAVIRAJ K S</t>
-  </si>
-  <si>
-    <t>Software Engineer</t>
-  </si>
-  <si>
-    <t>kaviraj.2205044@srec.ac.in</t>
-  </si>
-  <si>
-    <t>kaviraj-k-s</t>
-  </si>
-  <si>
-    <t>Passionate IT student with an 8.11 CGPA, specializing in Web Development and Machine Learning. Focused on project-based learning, I am eager to contribute to the tech industry, showcasing creativity and problem-solving skills in the intersection of Web Development and ML technologies.</t>
-  </si>
-  <si>
-    <t>HTML</t>
-  </si>
-  <si>
-    <t>CSS</t>
-  </si>
-  <si>
-    <t>JAVA</t>
-  </si>
-  <si>
-    <t>JAVA Script</t>
-  </si>
-  <si>
-    <t>Web Developer</t>
-  </si>
-  <si>
-    <t>Emglitz Technologies</t>
-  </si>
-  <si>
-    <t>Developing a responsive website with interactive components.</t>
-  </si>
-  <si>
-    <t>Kongu Kalvi Nilayam Matriculation Higher Secondary School</t>
-  </si>
-  <si>
-    <t>Vehicle Detection and Counting</t>
-  </si>
-  <si>
-    <t>6 Months</t>
-  </si>
-  <si>
-    <t>Developed a website using deep learning to detect and count the vehicle.</t>
-  </si>
-  <si>
-    <t>Student Mark Management</t>
-  </si>
-  <si>
-    <t>June to July</t>
-  </si>
-  <si>
-    <t>Developed a website which allows teacher to entry the student mark details and converts it to excel.</t>
-  </si>
-  <si>
-    <t>SmartWork</t>
-  </si>
-  <si>
-    <t>kavi</t>
   </si>
 </sst>
 </file>
@@ -707,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AL11" sqref="AL11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AN3" sqref="AN3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -971,128 +908,28 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3">
-        <v>9865143432</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L3" t="s">
-        <v>81</v>
-      </c>
-      <c r="O3" t="s">
-        <v>82</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>62</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="S3" t="s">
-        <v>60</v>
-      </c>
-      <c r="T3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U3">
-        <v>2026</v>
-      </c>
-      <c r="V3">
-        <v>8.11</v>
-      </c>
-      <c r="W3" t="s">
-        <v>32</v>
-      </c>
-      <c r="X3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA3" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC3">
-        <v>2022</v>
-      </c>
-      <c r="AD3">
-        <v>91</v>
-      </c>
-      <c r="AE3" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG3" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH3" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="AI3" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK3" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL3" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM3" s="8" t="s">
-        <v>92</v>
-      </c>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="7"/>
+      <c r="P3" s="8"/>
+      <c r="R3" s="7"/>
+      <c r="AA3" s="8"/>
+      <c r="AE3" s="9"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{C8582C71-7CFE-47FC-8F6F-E16A78922F71}"/>
     <hyperlink ref="E2" r:id="rId2" display="www.linkedin.com/in/antony-praveen-998544258_x000a_" xr:uid="{B5595699-55F3-4055-94E9-D54D7DC4BBCA}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{D6D91B4B-9F9A-4A7A-B50E-8C769459822C}"/>
-    <hyperlink ref="E3" r:id="rId4" display="https://www.linkedin.com/in/kaviraj-k-s-2691a5287" xr:uid="{B537B27E-19D7-45C5-88EF-3D280C330B9E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>